--- a/template/sa_promotion_template.xlsx
+++ b/template/sa_promotion_template.xlsx
@@ -775,7 +775,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,12 +818,6 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -852,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -900,12 +894,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1351,7 +1339,7 @@
   <dimension ref="A1:BK1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K1048576"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1368,21 +1356,21 @@
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" style="16" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="19" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="22" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="17" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="20" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" style="16" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" customWidth="1"/>
     <col min="17" max="17" width="15.42578125" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" style="21" customWidth="1"/>
     <col min="20" max="20" width="11.42578125" customWidth="1"/>
     <col min="21" max="21" width="9.140625" customWidth="1"/>
     <col min="22" max="22" width="11.140625" customWidth="1"/>
     <col min="23" max="24" width="10.28515625" customWidth="1"/>
     <col min="25" max="25" width="18.5703125" customWidth="1"/>
     <col min="26" max="26" width="8.85546875" style="16" customWidth="1"/>
-    <col min="27" max="27" width="6.5703125" style="19" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" style="19" customWidth="1"/>
+    <col min="27" max="27" width="6.5703125" style="17" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" style="17" customWidth="1"/>
     <col min="29" max="29" width="6.85546875" customWidth="1"/>
     <col min="30" max="30" width="7.7109375" customWidth="1"/>
     <col min="31" max="31" width="7" customWidth="1"/>
@@ -1431,7 +1419,7 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -1443,10 +1431,10 @@
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="7" t="s">
@@ -1464,25 +1452,25 @@
       <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="19" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="7" t="s">
